--- a/majImagerie/ig/StructureDefinition-fr-lm-signes-vitaux.xlsx
+++ b/majImagerie/ig/StructureDefinition-fr-lm-signes-vitaux.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:37:33+00:00</t>
+    <t>2025-12-05T10:47:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/majImagerie/ig/StructureDefinition-fr-lm-signes-vitaux.xlsx
+++ b/majImagerie/ig/StructureDefinition-fr-lm-signes-vitaux.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T10:47:15+00:00</t>
+    <t>2025-12-05T14:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
